--- a/data/income_statement/2digits/size/81_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/81_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>81-Services to buildings and landscape activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>81-Services to buildings and landscape activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4003010.98187</v>
+        <v>3978648.82983</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4875906.00752</v>
+        <v>4871203.94409</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5876743.08818</v>
+        <v>5857705.37956</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7330693.31242</v>
+        <v>7315384.63283</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9034954.467669999</v>
+        <v>9002696.21659</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10530910.04777</v>
+        <v>10709681.8685</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>12630593.12723</v>
+        <v>12788796.0169</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>17469187.65657</v>
+        <v>17417055.87768</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>20270326.90064</v>
+        <v>20074760.92464</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11998958.67425</v>
+        <v>12445602.91641</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11835067.69088</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12408632.49067</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15771872.692</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3882784.20576</v>
+        <v>3858422.05372</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4783553.1375</v>
+        <v>4778855.3475</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5751877.32904</v>
+        <v>5733067.74574</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7185516.783120001</v>
+        <v>7170255.848870001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8920522.608549999</v>
+        <v>8888607.706770001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10398061.4572</v>
+        <v>10552677.62807</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12415729.14031</v>
+        <v>12570932.83877</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>17117439.06143</v>
+        <v>17075306.5852</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>19882959.65727</v>
+        <v>19687891.96081</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11842669.65384</v>
+        <v>12288990.64024</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11624094.8917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12196586.69019</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>15303941.218</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3239.26112</v>
@@ -1040,19 +956,19 @@
         <v>60234.97427000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>13737.34152</v>
+        <v>13901.03663</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>31638.08879</v>
+        <v>55420.165</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>67301.75060000001</v>
+        <v>68389.99973000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>95297.83688000002</v>
+        <v>85427.31163000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>117364.79305</v>
+        <v>117268.04077</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>7033.02019</v>
@@ -1060,128 +976,148 @@
       <c r="M7" s="48" t="n">
         <v>59944.0665</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>143181.368</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>116987.51499</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>75166.48641</v>
+        <v>75162.21298000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>66475.45572</v>
+        <v>66247.33039999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>84941.55503000002</v>
+        <v>84893.80969000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>100694.5176</v>
+        <v>100187.47319</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>101210.50178</v>
+        <v>101584.07543</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>147562.23632</v>
+        <v>149473.1784</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>256450.75826</v>
+        <v>256321.98085</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>270002.45032</v>
+        <v>269600.92306</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>149256.00022</v>
+        <v>149579.25598</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>151028.73268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>152101.73398</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>324750.106</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>8546.25908</v>
+        <v>8458.57252</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>12520.3087</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>11317.64482</v>
+        <v>11287.9083</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6564.574430000001</v>
+        <v>6544.36738</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>13058.31747</v>
+        <v>13018.75636</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>18982.64573</v>
+        <v>18970.10764</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>19465.36349</v>
+        <v>19578.82165</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>64903.81797</v>
+        <v>64595.41083</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>98822.49119</v>
+        <v>93508.90254</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>92392.83967</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>131647.19076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>132139.15693</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>259123.332</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>7676.20372</v>
+        <v>7588.51716</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>6342.547030000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>8516.483030000001</v>
+        <v>8491.053609999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5887.65454</v>
+        <v>5867.44749</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12240.1286</v>
+        <v>12202.03376</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>18186.57649</v>
+        <v>18171.53837</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>18759.20361</v>
+        <v>18866.69906</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>58643.41115</v>
+        <v>58359.41079</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>83586.18162</v>
+        <v>78321.63106999999</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>86323.08579000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>127913.94749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>128015.07247</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>206959.011</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>590.73064</v>
@@ -1190,37 +1126,42 @@
         <v>1276.82329</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>770.55825</v>
+        <v>766.2511500000001</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>615.5553000000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>646.89077</v>
+        <v>645.4245</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>185.3706</v>
+        <v>187.87063</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>373.9778</v>
+        <v>379.94051</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3306.48968</v>
+        <v>3282.0829</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>8326.58099</v>
+        <v>8278.193029999999</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>2750.31152</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1853.57301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2244.4142</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4925.327</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>279.32472</v>
@@ -1247,7 +1188,7 @@
         <v>2953.91714</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6909.72858</v>
+        <v>6909.078439999999</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>3319.44236</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>1879.67026</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>47238.994</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3994464.72279</v>
+        <v>3970190.25731</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4863385.698820001</v>
+        <v>4858683.63539</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5865425.443360001</v>
+        <v>5846417.47126</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7324128.737989999</v>
+        <v>7308840.26545</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9021896.150199998</v>
+        <v>8989677.46023</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10511927.40204</v>
+        <v>10690711.76086</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12611127.76374</v>
+        <v>12769217.19525</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>17404283.8386</v>
+        <v>17352460.46685</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>20171504.40945</v>
+        <v>19981252.0221</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11906565.83458</v>
+        <v>12353210.07674</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11703420.50012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12276493.33374</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15512749.36</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3596568.77186</v>
+        <v>3585983.035689999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>4425544.089480001</v>
+        <v>4421844.870970001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5338518.01627</v>
+        <v>5321252.58458</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6726620.743360001</v>
+        <v>6713822.8453</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8352482.93674</v>
+        <v>8322778.41391</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9749943.16123</v>
+        <v>9926690.60874</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11692977.93289</v>
+        <v>11834391.89776</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16177879.33939</v>
+        <v>16136104.21209</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>18780525.49828</v>
+        <v>18629475.81313</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10921678.53307</v>
+        <v>11344556.29296</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10673082.35722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11147213.1632</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13750074.108</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>32255.36802</v>
@@ -1352,31 +1308,36 @@
         <v>44125.97123</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>73773.28857999999</v>
+        <v>73257.16511</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>120760.27153</v>
+        <v>120221.86623</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>177588.53356</v>
+        <v>180685.15634</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>275122.06998</v>
+        <v>274334.38377</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>237758.90249</v>
+        <v>218625.67484</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>86894.43050999999</v>
+        <v>86894.43051000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>151659.45108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>158433.75331</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>343203.666</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>99458.67039999999</v>
@@ -1385,76 +1346,86 @@
         <v>120954.70301</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>114558.11624</v>
+        <v>110540.04974</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>176899.05491</v>
+        <v>175680.90683</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>377062.46171</v>
+        <v>359558.5061199999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>412537.59407</v>
+        <v>429315.98819</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>889423.81593</v>
+        <v>903661.10987</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1090797.1709</v>
+        <v>1078778.11399</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>858611.0141500001</v>
+        <v>830751.28026</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>326792.92394</v>
+        <v>315357.9923100001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>439104.69036</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>418145.40141</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>721516.347</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3458139.34389</v>
+        <v>3447553.60772</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4230061.117450001</v>
+        <v>4226361.89894</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5125354.54633</v>
+        <v>5112107.18114</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6495653.62385</v>
+        <v>6484188.4641</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7859004.589939999</v>
+        <v>7847324.226169999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>9194942.76292</v>
+        <v>9355508.437729999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>10613496.13224</v>
+        <v>10737624.93195</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>14783851.58304</v>
+        <v>14754979.08338</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>17651357.24939</v>
+        <v>17547300.52578</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>10503297.09982</v>
+        <v>10937609.79134</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>10075519.66371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10563835.45641</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>12682980.592</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>6715.389550000001</v>
@@ -1466,19 +1437,19 @@
         <v>14720.58188</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9942.093370000001</v>
+        <v>9827.503140000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>42642.59651</v>
+        <v>42638.51651000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>21702.53271</v>
+        <v>21644.31659</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>12469.45116</v>
+        <v>12420.6996</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>28108.51547</v>
+        <v>28012.63095</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>32798.33225</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>6798.552070000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2373.503</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>397895.95093</v>
+        <v>384207.22162</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>437841.60934</v>
+        <v>436838.76442</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>526907.42709</v>
+        <v>525164.88668</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>597507.99463</v>
+        <v>595017.42015</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>669413.2134599999</v>
+        <v>666899.0463200001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>761984.24081</v>
+        <v>764021.15212</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>918149.8308499999</v>
+        <v>934825.2974899999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1226404.49921</v>
+        <v>1216356.25476</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1390978.91117</v>
+        <v>1351776.20897</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>984887.30151</v>
+        <v>1008653.78378</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1030338.1429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1129280.17054</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1762675.252</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>268134.54686</v>
+        <v>263449.53044</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>299541.3181499999</v>
+        <v>298551.28636</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>347334.94455</v>
+        <v>346076.98773</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>386691.13701</v>
+        <v>384897.1269</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>459098.44688</v>
+        <v>456754.0738</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>575051.3042100001</v>
+        <v>583626.11886</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>701118.35543</v>
+        <v>714887.18088</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>853116.8560700001</v>
+        <v>841128.03637</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1016982.50885</v>
+        <v>981240.61887</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>725250.4371600001</v>
+        <v>728603.9605299999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>687247.4556100001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>686886.4944200001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1436889.329</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>89.06313</v>
@@ -1606,17 +1592,22 @@
       <c r="M21" s="48" t="n">
         <v>600.11374</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>392.208</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>30006.79765</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>38076.92669</v>
+        <v>38076.92669000001</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>32916.83762</v>
@@ -1625,148 +1616,168 @@
         <v>41293.80102</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>56995.95632</v>
+        <v>56635.4731</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>74387.29028999999</v>
+        <v>73387.55520999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>92131.8296</v>
+        <v>100110.4648</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>117867.06367</v>
+        <v>117356.82912</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>131999.16693</v>
+        <v>127543.48911</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>157762.81413</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>162222.99607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>162221.75636</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>168350.909</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>238038.68608</v>
+        <v>233353.66966</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>261441.71646</v>
+        <v>260451.68467</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>314347.03193</v>
+        <v>313089.07511</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>345322.08315</v>
+        <v>343528.07304</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>401352.06635</v>
+        <v>399368.17649</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>500166.38982</v>
+        <v>509740.93955</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>608502.48701</v>
+        <v>614292.67726</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>734518.1885500001</v>
+        <v>723039.6033999999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>884595.1831499999</v>
+        <v>853308.9709900001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>566558.9599199999</v>
+        <v>569912.48329</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>524424.3458000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>524064.62432</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1268146.212</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>129761.40407</v>
+        <v>120757.69118</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>138300.29119</v>
+        <v>138287.47806</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>179572.48254</v>
+        <v>179087.89895</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>210816.85762</v>
+        <v>210120.29325</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>210314.76658</v>
+        <v>210144.97252</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>186932.9366</v>
+        <v>180395.03326</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>217031.47542</v>
+        <v>219938.11661</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>373287.64314</v>
+        <v>375228.21839</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>373996.40232</v>
+        <v>370535.5901</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>259636.86435</v>
+        <v>280049.82325</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>343090.68729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>442393.67612</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>325785.923</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>83002.09186</v>
+        <v>71654.07428</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>75759.28041000001</v>
+        <v>74424.57956000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>82763.26035000001</v>
+        <v>81565.4011</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>82806.46664</v>
+        <v>81520.34508</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>100200.75594</v>
+        <v>95260.44705</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>132434.29628</v>
+        <v>125925.26317</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>149055.31908</v>
+        <v>143723.01904</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>152287.29587</v>
+        <v>134782.41063</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>535307.51276</v>
+        <v>217096.43979</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>389254.925</v>
+        <v>190994.0916</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>226193.52842</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>200295.44778</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>328282.944</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>11616.38722</v>
@@ -1787,13 +1798,13 @@
         <v>7936.54661</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>8151.8136</v>
+        <v>8183.330400000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>22709.62383</v>
+        <v>13909.07339</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>37501.89064</v>
+        <v>28324.13797</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>10011.54447</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>290.84272</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2480.983</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>11242.43945</v>
@@ -1829,61 +1845,71 @@
         <v>26114.16754</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>13804.8863</v>
+        <v>14032.43577</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>45912.40917</v>
+        <v>38275.75048</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>28849.87722</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>22028.82959</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>12620.24681</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2215.833</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>12479.37903</v>
+        <v>12237.13847</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>10250.74033</v>
+        <v>9392.21451</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>11892.4419</v>
+        <v>10792.51737</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>20809.61728</v>
+        <v>20187.72788</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>22794.71068</v>
+        <v>17936.0422</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>32487.39622</v>
+        <v>26037.46702</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>44120.85447999999</v>
+        <v>37533.0459</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>45262.31475</v>
+        <v>42473.21120000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>56526.483</v>
+        <v>45023.61465</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>56021.56493</v>
+        <v>56022.35784</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>66456.33442999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>48432.86803</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>45636.237</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>57.68267</v>
@@ -1895,16 +1921,16 @@
         <v>223.08469</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>812.8778599999999</v>
+        <v>426.52097</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>645.60961</v>
+        <v>582.16367</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>653.2791099999999</v>
+        <v>562.38624</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>137.95525</v>
+        <v>53.60824</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>206.40683</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>243.91662</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>151.824</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>12447.1359</v>
+        <v>12227.92723</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>12082.12504</v>
@@ -1946,7 +1977,7 @@
         <v>14546.0556</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5014.57789</v>
+        <v>5031.97296</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>23144.48027</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>14168.28318</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>10526.817</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1128.85869</v>
@@ -1970,7 +2006,7 @@
         <v>872.9809000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>783.60184</v>
+        <v>783.5028300000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>1574.08642</v>
@@ -1982,64 +2018,74 @@
         <v>687.0582900000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1142.28054</v>
+        <v>1239.75375</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5106.05484</v>
+        <v>5105.997939999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1925.81947</v>
+        <v>1819.87105</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>3822.26111</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3888.800569999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3888.80057</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2541.777</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>18375.37565</v>
+        <v>7488.807299999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>22873.15651</v>
+        <v>22396.98213</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>12859.0535</v>
+        <v>12761.21779</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>18081.41877</v>
+        <v>17863.58537</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>13423.26604</v>
+        <v>13420.77922</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>25194.16567</v>
+        <v>25241.42921</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>21386.27468</v>
+        <v>20571.42309</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>10556.76737</v>
+        <v>8193.878250000002</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>311185.06258</v>
+        <v>21678.85305</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>234242.26029</v>
+        <v>36083.31587999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>48264.61093</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>49826.23035</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>207455.758</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1304.09953</v>
@@ -2063,7 +2109,7 @@
         <v>2.06373</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>3823.92245</v>
+        <v>0.47363</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>19.21259</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>6070.77488</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5406.899</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.52275</v>
@@ -2113,92 +2164,107 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>14349.21097</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>17523.68789</v>
+        <v>17523.68724</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>19774.94583</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>21126.4649</v>
+        <v>21066.42303</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>41000.34457</v>
+        <v>40984.63692</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>36288.61036999999</v>
+        <v>36273.13579</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>33453.85366</v>
+        <v>35479.57079</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>45802.74161</v>
+        <v>45828.96066</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>58915.1312</v>
+        <v>58633.49589</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>52580.50822</v>
+        <v>52477.82632</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>64781.1355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>64753.48462</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>51866.816</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>43526.11216</v>
+        <v>34312.85371</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>59258.21134</v>
+        <v>58269.46649</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>76349.24734</v>
+        <v>75861.54154999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>33085.45192</v>
+        <v>32997.35158</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>61346.53786</v>
+        <v>61220.47227</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>56055.93513</v>
+        <v>55990.06651999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>49041.1243</v>
+        <v>48969.97983999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>42472.69074</v>
+        <v>33516.29901</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>414934.3568</v>
+        <v>171277.36306</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>274271.11126</v>
+        <v>71220.40879999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>135774.41161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>128806.73971</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>232974.759</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>126.85986</v>
+        <v>126.7919</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>1442.21703</v>
@@ -2216,13 +2282,13 @@
         <v>2213.36006</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1268.82717</v>
+        <v>1269.73684</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>642.80614</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1341.53682</v>
+        <v>1288.92476</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>2263.95557</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>4965.775549999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>4738.29</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>12082.58166</v>
@@ -2255,7 +2326,7 @@
         <v>16018.89279</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9528.068139999999</v>
+        <v>9531.522009999999</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>5003.80713</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>27403.60255</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>14733.361</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>16.18929</v>
@@ -2308,56 +2384,66 @@
       <c r="M39" s="48" t="n">
         <v>0.06979</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>18064.15846</v>
+        <v>8850.96797</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>15936.2699</v>
+        <v>15065.84365</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>39431.85821</v>
+        <v>38944.28466</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>12798.20726</v>
+        <v>12719.14676</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>35233.74306999999</v>
+        <v>35120.31400999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>20299.19849</v>
+        <v>20252.49161</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>22555.14263</v>
+        <v>22569.46706</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10112.83392</v>
+        <v>7163.86305</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>276079.76898</v>
+        <v>32695.11429</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>227373.80523</v>
+        <v>24323.10277</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>47137.58005999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>40169.80582</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>197309.489</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>121.34829</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>137.85764</v>
+        <v>19.53904</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0.20127</v>
@@ -2375,7 +2461,7 @@
         <v>68.46514000000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>5670.56628</v>
+        <v>15.29378</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>4.94975</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>10168.03201</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1331.46</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>13114.9746</v>
@@ -2438,121 +2534,136 @@
         <v>15408.81653</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>17109.70269</v>
+        <v>17109.57045</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>13047.92897</v>
+        <v>13038.88913</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>21263.80671</v>
+        <v>21251.17018</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17297.12225</v>
+        <v>17277.96052</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>15601.74495</v>
+        <v>15511.91252</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>20601.24224</v>
+        <v>20249.09388</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>106524.20657</v>
+        <v>106304.47958</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>23515.39302</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>46099.35165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>46099.45399</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14862.159</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>47966.68960000001</v>
+        <v>46643.80484</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>46419.21266</v>
+        <v>45736.09229</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>55870.12556</v>
+        <v>54894.23272</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>72545.02687999999</v>
+        <v>72172.01869999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>64562.81609</v>
+        <v>64090.36671</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>76659.03356</v>
+        <v>83301.21921</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>122369.22888</v>
+        <v>123209.62714</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>159671.41624</v>
+        <v>156128.77125</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>354160.72955</v>
+        <v>156690.91051</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>160571.43496</v>
+        <v>160467.39063</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>164764.9779</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>158842.6343</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>126865.191</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>41287.13748</v>
+        <v>40006.70698999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>39644.11187</v>
+        <v>39234.36196</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>50791.53633</v>
+        <v>49815.64349</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>67674.15887999999</v>
+        <v>67301.15069999998</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>60470.07234</v>
+        <v>59997.62296</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>73633.30235000001</v>
+        <v>80275.488</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>117757.88933</v>
+        <v>118598.28759</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>151955.84477</v>
+        <v>148413.19978</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>149278.22037</v>
+        <v>142738.40349</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>149735.8067</v>
+        <v>149631.76237</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>159237.84654</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>153315.50294</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>120616.391</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>6679.552119999999</v>
+        <v>6637.097849999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>6775.10079</v>
+        <v>6501.73033</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>5078.58923</v>
@@ -2567,13 +2678,13 @@
         <v>3025.73121</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4611.339550000001</v>
+        <v>4611.33955</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>7715.57147</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>204882.50918</v>
+        <v>13952.50702</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>10835.62826</v>
@@ -2581,92 +2692,107 @@
       <c r="M46" s="48" t="n">
         <v>5527.13136</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>6248.8</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>121270.69417</v>
+        <v>111455.10691</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>108382.1476</v>
+        <v>108706.49884</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>130116.36999</v>
+        <v>129897.52578</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>187992.84546</v>
+        <v>186471.26805</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>184606.16857</v>
+        <v>180094.58059</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>186652.26419</v>
+        <v>167029.0107</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>194676.44132</v>
+        <v>191481.52867</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>323430.83203</v>
+        <v>320365.55876</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>140208.82873</v>
+        <v>259663.75632</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>214049.24313</v>
+        <v>239356.11542</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>268744.8262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>355039.74989</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>294228.917</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>17567.95108</v>
+        <v>17085.15767</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>31645.78819</v>
+        <v>31218.04913</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>16902.8372</v>
+        <v>16524.77977</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>32655.15458</v>
+        <v>32610.43864</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>48686.56208</v>
+        <v>48681.52241999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>61177.44196</v>
+        <v>80724.77006</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>74061.37625</v>
+        <v>69878.29058999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>178878.2498</v>
+        <v>88673.15241000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>121548.25815</v>
+        <v>101580.07397</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>104853.37664</v>
+        <v>104863.26057</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>98378.10079999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>95457.34389</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>115778.88</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>706.6230899999999</v>
+        <v>225.63994</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>199.39906</v>
@@ -2681,10 +2807,10 @@
         <v>4000.20698</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1590.54482</v>
+        <v>1918.38538</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4465.36255</v>
+        <v>4412.45612</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>3371.02172</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>1399.06047</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>844.765</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>16861.32799</v>
+        <v>16859.51773</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>31446.38913</v>
+        <v>31018.65007</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>16648.9082</v>
+        <v>16270.85077</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>31168.35062</v>
+        <v>31123.63468</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>44686.35509999999</v>
+        <v>44681.31544</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>59586.89713999999</v>
+        <v>78806.38468</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>69596.0137</v>
+        <v>65465.83447</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>175507.22808</v>
+        <v>85302.13068999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>119513.79306</v>
+        <v>99545.60888</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>102679.6513</v>
+        <v>102689.53523</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>96979.04032999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>94058.28342000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>114934.115</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>18056.70078</v>
+        <v>18053.57536</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>31844.08135</v>
+        <v>31836.58551</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>162336.23869</v>
+        <v>162145.30448</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>48049.00252</v>
+        <v>47962.81989</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>65349.16514</v>
+        <v>58765.64163999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>54779.43354999999</v>
+        <v>58294.73406</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>70055.29602000001</v>
+        <v>69716.75696000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>240025.09985</v>
+        <v>170436.01415</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>109599.97073</v>
+        <v>89262.93822</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>119397.95022</v>
+        <v>117413.02284</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>99600.91723000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>92491.66608</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>98671.518</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.00034</v>
@@ -2813,19 +2954,24 @@
         <v>299.6631599999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>74.91578999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>29.001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1555.4724</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2073.2268</v>
+        <v>2068.9318</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>872.16011</v>
@@ -2834,19 +2980,19 @@
         <v>1500.58669</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>988.5247500000002</v>
+        <v>986.8727500000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5114.72355</v>
+        <v>5114.503659999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1468.54641</v>
+        <v>1369.14212</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>44465.60333999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2602.20749</v>
+        <v>2596.24814</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>5627.954369999999</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>5141.818109999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3923.794</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>16501.22804</v>
+        <v>16498.10262</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>29729.38413</v>
+        <v>29726.18329</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>161446.64993</v>
+        <v>161255.71572</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>46349.90737</v>
+        <v>46263.72474000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>64321.50415000001</v>
+        <v>57739.63265</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>49543.4592</v>
+        <v>53058.9796</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>68071.99019</v>
+        <v>67832.85542000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>195559.47451</v>
+        <v>125970.38881</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>106301.74992</v>
+        <v>85970.67676</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>113470.33269</v>
+        <v>111485.40531</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>94384.18333000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>87349.84796999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>94718.723</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>120781.94447</v>
+        <v>110486.68922</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>108183.85444</v>
+        <v>108087.96246</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-15317.0315</v>
+        <v>-15722.99893</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>172598.99752</v>
+        <v>171118.8868</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>167943.56551</v>
+        <v>170010.46137</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>193050.2726</v>
+        <v>189459.0467</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>198682.52155</v>
+        <v>191643.0623</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>262283.98198</v>
+        <v>238602.69702</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>152157.11615</v>
+        <v>271980.89207</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>199504.66955</v>
+        <v>226806.35315</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>267522.00977</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>358005.4277000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>311336.279</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>21388.47811</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>23669.17036</v>
+        <v>23570.13119</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>28916.50818</v>
+        <v>28755.93693</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>40871.54755</v>
+        <v>40392.17694999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>48249.03854</v>
+        <v>47018.58456</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>55043.23481999999</v>
+        <v>53465.20931000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>60616.63158</v>
+        <v>59807.44242</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>84695.61353</v>
+        <v>81332.41914</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>107719.62836</v>
+        <v>104434.07298</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>80402.62898000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>116748.67208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>107910.86779</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>123554.56</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>99393.46635999999</v>
+        <v>89098.21111</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>84514.68407999999</v>
+        <v>84517.83127000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-44233.53967999999</v>
+        <v>-44478.93586</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>131727.44997</v>
+        <v>130726.70985</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>119694.52697</v>
+        <v>122991.87681</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>138007.03778</v>
+        <v>135993.83739</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>138065.88997</v>
+        <v>131835.61988</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>177588.36845</v>
+        <v>157270.27788</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>44437.48779000001</v>
+        <v>167546.81909</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>119102.04057</v>
+        <v>146403.72417</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>150773.33769</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>250094.55991</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>187781.719</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M59" s="35" t="n">
+        <v>151</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>